--- a/BookData/PublishingHouses.xlsx
+++ b/BookData/PublishingHouses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/GAIs-and-Dolls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/GAIs-and-Dolls/BookData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC793D57-8F32-4848-9530-0980B24FD99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A8CA3-6050-464F-8C6A-965D311633B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0E6AB603-FBCB-ED45-8843-4ED3B3D9A5B3}"/>
+    <workbookView xWindow="4560" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{0E6AB603-FBCB-ED45-8843-4ED3B3D9A5B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="53" r:id="rId2"/>
+    <pivotCache cacheId="84" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="377">
   <si>
     <t>Publisher</t>
   </si>
@@ -945,6 +945,234 @@
   </si>
   <si>
     <t>Hasbro</t>
+  </si>
+  <si>
+    <t>Baker Publishing Group</t>
+  </si>
+  <si>
+    <t>Atlantic Monthly</t>
+  </si>
+  <si>
+    <t>Grove/Atlantic Inc</t>
+  </si>
+  <si>
+    <t>Atria/Keywords</t>
+  </si>
+  <si>
+    <t>B &amp; H</t>
+  </si>
+  <si>
+    <t>B &amp; H Publishing</t>
+  </si>
+  <si>
+    <t>B&amp;H</t>
+  </si>
+  <si>
+    <t>Baker Books</t>
+  </si>
+  <si>
+    <t>Broadside/HarperCollins</t>
+  </si>
+  <si>
+    <t>Celebra</t>
+  </si>
+  <si>
+    <t>Convergent</t>
+  </si>
+  <si>
+    <t>Convergent Books</t>
+  </si>
+  <si>
+    <t>CreateSpace</t>
+  </si>
+  <si>
+    <t>Dey Street/ Morrow</t>
+  </si>
+  <si>
+    <t>DGS</t>
+  </si>
+  <si>
+    <t>Disney Press</t>
+  </si>
+  <si>
+    <t>Disney/Lucasfilm</t>
+  </si>
+  <si>
+    <t>Dutton/Penguin Publishing Group</t>
+  </si>
+  <si>
+    <t>Europa Editions</t>
+  </si>
+  <si>
+    <t>EverAfter Romance</t>
+  </si>
+  <si>
+    <t>Diversion Publishing</t>
+  </si>
+  <si>
+    <t>Faith Words</t>
+  </si>
+  <si>
+    <t>Greenwillow/HarperCollins</t>
+  </si>
+  <si>
+    <t>Grove</t>
+  </si>
+  <si>
+    <t>Grove Press</t>
+  </si>
+  <si>
+    <t>Helena Hunting</t>
+  </si>
+  <si>
+    <t>Hoover Ink</t>
+  </si>
+  <si>
+    <t>J.S. Cooper and Helen Cooper</t>
+  </si>
+  <si>
+    <t>Jeremy P. Tarcher/Penguin</t>
+  </si>
+  <si>
+    <t>Katherine Tegen</t>
+  </si>
+  <si>
+    <t>Keywords/Atria</t>
+  </si>
+  <si>
+    <t>Laree Bailey</t>
+  </si>
+  <si>
+    <t>Laree Bailey Press</t>
+  </si>
+  <si>
+    <t>Little  Brown</t>
+  </si>
+  <si>
+    <t>LucasBooks</t>
+  </si>
+  <si>
+    <t>Marian Wood/Putnam</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Metal Blonde</t>
+  </si>
+  <si>
+    <t>Metal Blonde Books</t>
+  </si>
+  <si>
+    <t>Mira</t>
+  </si>
+  <si>
+    <t>NAL</t>
+  </si>
+  <si>
+    <t>National Geographic</t>
+  </si>
+  <si>
+    <t>Nelson Books</t>
+  </si>
+  <si>
+    <t>New Word City</t>
+  </si>
+  <si>
+    <t>Oak Press</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>Pam Krauss</t>
+  </si>
+  <si>
+    <t>Paula Deen Ventures</t>
+  </si>
+  <si>
+    <t>Pepper Winters</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>Princeton University Press</t>
+  </si>
+  <si>
+    <t>Quirk</t>
+  </si>
+  <si>
+    <t>Regan Arts</t>
+  </si>
+  <si>
+    <t>Revell</t>
+  </si>
+  <si>
+    <t>Running Press</t>
+  </si>
+  <si>
+    <t>Science Future Press</t>
+  </si>
+  <si>
+    <t>Scout Press</t>
+  </si>
+  <si>
+    <t>Simon &amp; Schuster,</t>
+  </si>
+  <si>
+    <t>Simon Pulse</t>
+  </si>
+  <si>
+    <t>Sourcebooks/Jabberwocky</t>
+  </si>
+  <si>
+    <t>South Dakota Historical Society</t>
+  </si>
+  <si>
+    <t>South Dakota Historical Society Press</t>
+  </si>
+  <si>
+    <t>Susan Stoker</t>
+  </si>
+  <si>
+    <t>Aces Press</t>
+  </si>
+  <si>
+    <t>Ten Speed Press</t>
+  </si>
+  <si>
+    <t>Three Rivers Press</t>
+  </si>
+  <si>
+    <t>Threshold Editions</t>
+  </si>
+  <si>
+    <t>Tim Duggan</t>
+  </si>
+  <si>
+    <t>TwoDot</t>
+  </si>
+  <si>
+    <t>Rowman &amp; Littlefield</t>
+  </si>
+  <si>
+    <t>Zebra</t>
+  </si>
+  <si>
+    <t>Zebra Press</t>
+  </si>
+  <si>
+    <t>Basic Books</t>
+  </si>
+  <si>
+    <t>Little Brown</t>
+  </si>
+  <si>
+    <t>America's Test Kitchen</t>
+  </si>
+  <si>
+    <t>Dey St.</t>
   </si>
 </sst>
 </file>
@@ -1016,13 +1244,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45023.365750925928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="268" xr:uid="{B5D11A41-59F0-FC46-845E-48E140B06565}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45026.719718402775" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="337" xr:uid="{B5D11A41-59F0-FC46-845E-48E140B06565}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B1048576" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Ultimate Publishing " numFmtId="0">
-      <sharedItems containsBlank="1" count="64">
+      <sharedItems containsBlank="1" count="133">
         <s v="Basic"/>
         <s v="Bloom"/>
         <s v="Canary Street"/>
@@ -1086,11 +1314,80 @@
         <s v="Various publishers"/>
         <s v="John Wiley &amp; Sons, Inc."/>
         <s v="Hasbro"/>
+        <s v="Atlantic Monthly"/>
+        <s v="Atria/Keywords"/>
+        <s v="B &amp; H"/>
+        <s v="B &amp; H Publishing"/>
+        <s v="B&amp;H"/>
+        <s v="Baker Books"/>
+        <s v="Broadside/HarperCollins"/>
+        <s v="Celebra"/>
+        <s v="Convergent"/>
+        <s v="Convergent Books"/>
+        <s v="CreateSpace"/>
+        <s v="Dey Street/ Morrow"/>
+        <s v="DGS"/>
+        <s v="Disney Press"/>
+        <s v="Disney/Lucasfilm"/>
+        <s v="Dutton/Penguin Publishing Group"/>
+        <s v="Europa Editions"/>
+        <s v="EverAfter Romance"/>
+        <s v="Faith Words"/>
+        <s v="Greenwillow/HarperCollins"/>
+        <s v="Grove"/>
+        <s v="Grove Press"/>
+        <s v="Hazelden"/>
+        <s v="Helena Hunting"/>
+        <s v="Hoover Ink"/>
+        <s v="J.S. Cooper and Helen Cooper"/>
+        <s v="Jeremy P. Tarcher/Penguin"/>
+        <s v="Katherine Tegen"/>
+        <s v="Keywords/Atria"/>
+        <s v="Laree Bailey"/>
+        <s v="Little  Brown"/>
+        <s v="LucasBooks"/>
+        <s v="Marian Wood/Putnam"/>
+        <s v="Marvel"/>
+        <s v="Metal Blonde"/>
+        <s v="Mira"/>
+        <s v="NAL"/>
+        <s v="National Geographic"/>
+        <s v="Nelson Books"/>
+        <s v="New Word City"/>
+        <s v="Oak Press"/>
+        <s v="Orbit"/>
+        <s v="Pam Krauss"/>
+        <s v="Paula Deen Ventures"/>
+        <s v="Pepper Winters"/>
+        <s v="Princeton University"/>
+        <s v="Quirk"/>
+        <s v="Regan Arts"/>
+        <s v="Revell"/>
+        <s v="Running Press"/>
+        <s v="Science Future Press"/>
+        <s v="Scout Press"/>
+        <s v="Simon &amp; Schuster,"/>
+        <s v="Simon Pulse"/>
+        <s v="Sourcebooks/Jabberwocky"/>
+        <s v="South Dakota Historical Society"/>
+        <s v="South Dakota Historical Society Press"/>
+        <s v="Susan Stoker"/>
+        <s v="Ten Speed Press"/>
+        <s v="Three Rivers Press"/>
+        <s v="Threshold Editions"/>
+        <s v="Tim Duggan"/>
+        <s v="Tommy Nelson"/>
+        <s v="TwoDot"/>
+        <s v="Zebra"/>
+        <s v="Basic Books"/>
+        <s v="Little Brown"/>
+        <s v="America's Test Kitchen"/>
+        <s v="Dey St."/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Publisher" numFmtId="0">
-      <sharedItems containsBlank="1" count="268">
+      <sharedItems containsBlank="1" count="291">
         <s v="Basic"/>
         <s v="Bloom"/>
         <s v="Canary Street"/>
@@ -1358,6 +1655,29 @@
         <s v="Worthy Publishing"/>
         <s v="Zinc Ink/Ballantine"/>
         <s v="Zondervan"/>
+        <s v="Grove/Atlantic Inc"/>
+        <s v="B &amp; H Publishing"/>
+        <s v="Baker Publishing Group"/>
+        <s v="Penguin Random House"/>
+        <s v="CreateSpace"/>
+        <s v="DGS"/>
+        <s v="Europa Editions"/>
+        <s v="Diversion Publishing"/>
+        <s v="Hachette Book"/>
+        <s v="Grove"/>
+        <s v="Macmillan Publishers"/>
+        <s v="Laree Bailey Press"/>
+        <s v="Metal Blonde Books"/>
+        <s v="New Word City"/>
+        <s v="Oak Press"/>
+        <s v="Princeton University Press"/>
+        <s v="Science Future Press"/>
+        <s v="Sourcebooks"/>
+        <s v="South Dakota Historical Society Press"/>
+        <s v="Aces Press"/>
+        <s v="Rowman &amp; Littlefield"/>
+        <s v="Zebra Press"/>
+        <s v="Marquee Brands"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1371,7 +1691,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="268">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="337">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2443,16 +2763,292 @@
   <r>
     <x v="63"/>
     <x v="267"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="268"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="268"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="268"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="269"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="271"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="272"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="120"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="120"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="273"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="274"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="275"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="276"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="267"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="155"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="277"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="278"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="275"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="120"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="120"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="279"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="120"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="280"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="281"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="275"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="275"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="282"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="217"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="269"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="275"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="283"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="284"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="285"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="285"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="286"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="270"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="277"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="287"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="288"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="275"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="275"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="289"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="290"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC9C22ED-C986-D24B-AF71-A861AA7A2AAB}" name="PivotTable10" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E1:E334" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC9C22ED-C986-D24B-AF71-A861AA7A2AAB}" name="PivotTable10" cacheId="84" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E1:E472" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
-      <items count="65">
+      <items count="134">
         <item x="6"/>
         <item x="20"/>
         <item x="21"/>
@@ -2516,12 +3112,81 @@
         <item x="45"/>
         <item x="30"/>
         <item x="5"/>
+        <item x="132"/>
         <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="269">
+      <items count="292">
         <item x="40"/>
         <item x="87"/>
         <item x="6"/>
@@ -2789,7 +3454,30 @@
         <item x="265"/>
         <item x="31"/>
         <item x="266"/>
+        <item x="290"/>
         <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2798,7 +3486,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="333">
+  <rowItems count="471">
     <i>
       <x/>
     </i>
@@ -3794,6 +4482,420 @@
     </i>
     <i r="1">
       <x v="267"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="268"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i r="1">
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="269"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i r="1">
+      <x v="269"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="269"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i r="1">
+      <x v="270"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i r="1">
+      <x v="271"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="271"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i r="1">
+      <x v="271"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i r="1">
+      <x v="272"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i r="1">
+      <x v="273"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i r="1">
+      <x v="271"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i r="1">
+      <x v="274"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i r="1">
+      <x v="275"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i r="1">
+      <x v="276"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i r="1">
+      <x v="277"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i r="1">
+      <x v="268"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i r="1">
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i r="1">
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i r="1">
+      <x v="278"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i r="1">
+      <x v="271"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i r="1">
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i r="1">
+      <x v="279"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i r="1">
+      <x v="276"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i r="1">
+      <x v="271"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i r="1">
+      <x v="280"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i r="1">
+      <x v="271"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i r="1">
+      <x v="281"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i r="1">
+      <x v="282"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i r="1">
+      <x v="276"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i r="1">
+      <x v="271"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i r="1">
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i r="1">
+      <x v="276"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i r="1">
+      <x v="283"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i r="1">
+      <x v="197"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i r="1">
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i r="1">
+      <x v="270"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i r="1">
+      <x v="276"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i r="1">
+      <x v="284"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i r="1">
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i r="1">
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i r="1">
+      <x v="285"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i r="1">
+      <x v="286"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i r="1">
+      <x v="286"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i r="1">
+      <x v="287"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i r="1">
+      <x v="271"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i r="1">
+      <x v="271"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i r="1">
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i r="1">
+      <x v="278"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i r="1">
+      <x v="288"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i r="1">
+      <x v="289"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i r="1">
+      <x v="276"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i r="1">
+      <x v="276"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i r="1">
+      <x v="290"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
     </i>
     <i t="grand">
       <x/>
@@ -4111,10 +5213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C46D89F-F5AB-4742-AA83-7B34B403792F}">
-  <dimension ref="A1:E334"/>
+  <dimension ref="A1:N472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4127,10 +5229,10 @@
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
@@ -4215,7 +5317,7 @@
     <col min="102" max="102" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -4225,8 +5327,14 @@
       <c r="E1" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4237,7 +5345,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4248,7 +5356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4259,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -4270,7 +5378,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -4281,7 +5389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -4292,7 +5400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -4303,7 +5411,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -4314,7 +5422,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4325,7 +5433,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -4336,7 +5444,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -4347,7 +5455,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4358,7 +5466,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4369,7 +5477,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4380,7 +5488,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -7164,332 +8272,1436 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>302</v>
+      </c>
+      <c r="B269" t="s">
+        <v>303</v>
+      </c>
       <c r="E269" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>304</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
       <c r="E270" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>305</v>
+      </c>
+      <c r="B271" t="s">
+        <v>306</v>
+      </c>
       <c r="E271" s="4" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>306</v>
+      </c>
+      <c r="B272" t="s">
+        <v>306</v>
+      </c>
       <c r="E272" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>307</v>
+      </c>
+      <c r="B273" t="s">
+        <v>306</v>
+      </c>
       <c r="E273" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>308</v>
+      </c>
+      <c r="B274" t="s">
+        <v>301</v>
+      </c>
       <c r="E274" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>309</v>
+      </c>
+      <c r="B275" t="s">
+        <v>17</v>
+      </c>
       <c r="E275" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>310</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
       <c r="E276" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>311</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
       <c r="E277" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>312</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
       <c r="E278" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>313</v>
+      </c>
+      <c r="B279" t="s">
+        <v>313</v>
+      </c>
       <c r="E279" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>314</v>
+      </c>
+      <c r="B280" t="s">
+        <v>17</v>
+      </c>
       <c r="E280" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>315</v>
+      </c>
+      <c r="B281" t="s">
+        <v>315</v>
+      </c>
       <c r="E281" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>316</v>
+      </c>
+      <c r="B282" t="s">
+        <v>29</v>
+      </c>
       <c r="E282" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>317</v>
+      </c>
+      <c r="B283" t="s">
+        <v>29</v>
+      </c>
       <c r="E283" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>318</v>
+      </c>
+      <c r="B284" t="s">
+        <v>7</v>
+      </c>
       <c r="E284" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>319</v>
+      </c>
+      <c r="B285" t="s">
+        <v>319</v>
+      </c>
       <c r="E285" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>320</v>
+      </c>
+      <c r="B286" t="s">
+        <v>321</v>
+      </c>
       <c r="E286" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>322</v>
+      </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
       <c r="E287" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>323</v>
+      </c>
+      <c r="B288" t="s">
+        <v>17</v>
+      </c>
       <c r="E288" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>324</v>
+      </c>
+      <c r="B289" t="s">
+        <v>324</v>
+      </c>
       <c r="E289" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>325</v>
+      </c>
+      <c r="B290" t="s">
+        <v>303</v>
+      </c>
       <c r="E290" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>165</v>
+      </c>
+      <c r="B291" t="s">
+        <v>166</v>
+      </c>
       <c r="E291" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>326</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
       <c r="E292" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>327</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
       <c r="E293" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>328</v>
+      </c>
+      <c r="B294" t="s">
+        <v>21</v>
+      </c>
       <c r="E294" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>329</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
       <c r="E295" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>330</v>
+      </c>
+      <c r="B296" t="s">
+        <v>17</v>
+      </c>
       <c r="E296" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>331</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
       <c r="E297" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>332</v>
+      </c>
+      <c r="B298" t="s">
+        <v>333</v>
+      </c>
       <c r="E298" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>334</v>
+      </c>
+      <c r="B299" t="s">
+        <v>10</v>
+      </c>
       <c r="E299" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>335</v>
+      </c>
+      <c r="B300" t="s">
+        <v>29</v>
+      </c>
       <c r="E300" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>336</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
       <c r="E301" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>337</v>
+      </c>
+      <c r="B302" t="s">
+        <v>29</v>
+      </c>
       <c r="E302" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>338</v>
+      </c>
+      <c r="B303" t="s">
+        <v>339</v>
+      </c>
       <c r="E303" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>340</v>
+      </c>
+      <c r="B304" t="s">
+        <v>17</v>
+      </c>
       <c r="E304" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>341</v>
+      </c>
+      <c r="B305" t="s">
+        <v>7</v>
+      </c>
       <c r="E305" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>342</v>
+      </c>
+      <c r="B306" t="s">
+        <v>29</v>
+      </c>
       <c r="E306" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>343</v>
+      </c>
+      <c r="B307" t="s">
+        <v>17</v>
+      </c>
       <c r="E307" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>344</v>
+      </c>
+      <c r="B308" t="s">
+        <v>344</v>
+      </c>
       <c r="E308" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>345</v>
+      </c>
+      <c r="B309" t="s">
+        <v>345</v>
+      </c>
       <c r="E309" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>346</v>
+      </c>
+      <c r="B310" t="s">
+        <v>10</v>
+      </c>
       <c r="E310" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>347</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
       <c r="E311" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="312" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>348</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
       <c r="E312" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="313" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>349</v>
+      </c>
+      <c r="B313" t="s">
+        <v>10</v>
+      </c>
       <c r="E313" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="314" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>350</v>
+      </c>
+      <c r="B314" t="s">
+        <v>351</v>
+      </c>
       <c r="E314" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="315" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>352</v>
+      </c>
+      <c r="B315" t="s">
+        <v>228</v>
+      </c>
       <c r="E315" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="316" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>353</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
       <c r="E316" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="317" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>354</v>
+      </c>
+      <c r="B317" t="s">
+        <v>301</v>
+      </c>
       <c r="E317" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="318" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>355</v>
+      </c>
+      <c r="B318" t="s">
+        <v>10</v>
+      </c>
       <c r="E318" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="319" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>356</v>
+      </c>
+      <c r="B319" t="s">
+        <v>356</v>
+      </c>
       <c r="E319" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="320" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>357</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
       <c r="E320" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="321" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>358</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
       <c r="E321" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="322" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>359</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
       <c r="E322" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="323" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>360</v>
+      </c>
+      <c r="B323" t="s">
+        <v>74</v>
+      </c>
       <c r="E323" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="324" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>361</v>
+      </c>
+      <c r="B324" t="s">
+        <v>362</v>
+      </c>
       <c r="E324" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="325" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>362</v>
+      </c>
+      <c r="B325" t="s">
+        <v>362</v>
+      </c>
       <c r="E325" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="326" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>363</v>
+      </c>
+      <c r="B326" t="s">
+        <v>364</v>
+      </c>
       <c r="E326" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="327" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>365</v>
+      </c>
+      <c r="B327" t="s">
+        <v>7</v>
+      </c>
       <c r="E327" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="328" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>366</v>
+      </c>
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
       <c r="E328" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="329" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>367</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
       <c r="E329" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="330" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>368</v>
+      </c>
+      <c r="B330" t="s">
+        <v>21</v>
+      </c>
       <c r="E330" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="331" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>254</v>
+      </c>
+      <c r="B331" t="s">
+        <v>17</v>
+      </c>
       <c r="E331" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="332" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>369</v>
+      </c>
+      <c r="B332" t="s">
+        <v>370</v>
+      </c>
       <c r="E332" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="333" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>371</v>
+      </c>
+      <c r="B333" t="s">
+        <v>372</v>
+      </c>
       <c r="E333" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="334" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>373</v>
+      </c>
+      <c r="B334" t="s">
+        <v>10</v>
+      </c>
       <c r="E334" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>374</v>
+      </c>
+      <c r="B335" t="s">
+        <v>10</v>
+      </c>
+      <c r="E335" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>375</v>
+      </c>
+      <c r="B336" t="s">
+        <v>283</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>376</v>
+      </c>
+      <c r="B337" t="s">
+        <v>17</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E338" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E339" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E340" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E341" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E342" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E343" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E344" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E345" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E346" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E347" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E348" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E349" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E350" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E351" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E352" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E353" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E354" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E355" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="356" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E356" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="357" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E357" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="358" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E358" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="359" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E359" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="360" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E360" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E361" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="362" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E362" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="363" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E363" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="364" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E364" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="365" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E365" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E366" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E367" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="368" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E368" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E369" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E370" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E371" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E372" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E373" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="374" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E374" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E375" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="376" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E376" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E377" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="378" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E378" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E379" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="380" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E380" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E381" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E382" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E383" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E384" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E385" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E386" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E387" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E388" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E389" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E390" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E391" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E392" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E393" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E394" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E395" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E396" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E397" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E398" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E399" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E400" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E401" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E402" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E403" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E404" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E405" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E406" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E407" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E408" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E409" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E410" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E411" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E412" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E413" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E414" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E415" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E416" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E417" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E418" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E419" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E420" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E421" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E422" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E423" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="424" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E424" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E425" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="426" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E426" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E427" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="428" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E428" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E429" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E430" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E431" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E432" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E433" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E434" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E435" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E436" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E437" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E438" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E439" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E440" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E441" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E442" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E443" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E444" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E445" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E446" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E447" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E448" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E449" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E450" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E451" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E452" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E453" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E454" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E455" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E456" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E457" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E458" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E459" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E460" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E461" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E462" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E463" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="464" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E464" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E465" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E466" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E467" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="468" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E468" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E469" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="470" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E470" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E471" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="472" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E472" s="3" t="s">
         <v>92</v>
       </c>
     </row>

--- a/BookData/PublishingHouses.xlsx
+++ b/BookData/PublishingHouses.xlsx
@@ -2,26 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephaniewolter/Desktop/BootCamp/Project_1/GAIs-and-Dolls/GAIs-and-Dolls/BookData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fatougai/Desktop/GAIs-and-Dolls/BookData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A8CA3-6050-464F-8C6A-965D311633B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46CA921B-D527-C646-920D-15B197A4FB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{0E6AB603-FBCB-ED45-8843-4ED3B3D9A5B3}"/>
+    <workbookView xWindow="800" yWindow="760" windowWidth="15420" windowHeight="17540" xr2:uid="{0E6AB603-FBCB-ED45-8843-4ED3B3D9A5B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$392</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$477</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="84" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="512">
   <si>
     <t>Publisher</t>
   </si>
@@ -1173,6 +1174,411 @@
   </si>
   <si>
     <t>Dey St.</t>
+  </si>
+  <si>
+    <t>Abrams Image</t>
+  </si>
+  <si>
+    <t>Accord/Andrews McMeel</t>
+  </si>
+  <si>
+    <t>El Le√≥n Literary Arts/Atlantic Monthly</t>
+  </si>
+  <si>
+    <t>Baker books</t>
+  </si>
+  <si>
+    <t>Bethany House</t>
+  </si>
+  <si>
+    <t>Beacon Publishing Group</t>
+  </si>
+  <si>
+    <t>Beacon</t>
+  </si>
+  <si>
+    <t>Bellevue Literary Press</t>
+  </si>
+  <si>
+    <t>C. Scott Publishing</t>
+  </si>
+  <si>
+    <t>Callaway Editions</t>
+  </si>
+  <si>
+    <t>Callaway</t>
+  </si>
+  <si>
+    <t>Central Recovery Press</t>
+  </si>
+  <si>
+    <t>Central Recovery</t>
+  </si>
+  <si>
+    <t>Chronicle Prism</t>
+  </si>
+  <si>
+    <t>Compendium Publishing</t>
+  </si>
+  <si>
+    <t>Compendium</t>
+  </si>
+  <si>
+    <t>Currency Press</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Delta Publishing Company</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Freeform</t>
+  </si>
+  <si>
+    <t>National Geographic Society</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>Voice/Hyperion</t>
+  </si>
+  <si>
+    <t>Hyperion/Disney</t>
+  </si>
+  <si>
+    <t>Hyperion Books for Children/Disney</t>
+  </si>
+  <si>
+    <t>Dream Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europa </t>
+  </si>
+  <si>
+    <t>Encounter Books</t>
+  </si>
+  <si>
+    <t>Encounter</t>
+  </si>
+  <si>
+    <t>Flamingo</t>
+  </si>
+  <si>
+    <t>Front Line Publishing</t>
+  </si>
+  <si>
+    <t>Front Line</t>
+  </si>
+  <si>
+    <t>Griffin Publishers</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>Black Dog &amp; Levanthal</t>
+  </si>
+  <si>
+    <t>Hachette</t>
+  </si>
+  <si>
+    <t>Hachette Go</t>
+  </si>
+  <si>
+    <t>Poppy</t>
+  </si>
+  <si>
+    <t>Orchard</t>
+  </si>
+  <si>
+    <t>Redhook</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>Eamon Dolan/Mariner</t>
+  </si>
+  <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>CustomHouse</t>
+  </si>
+  <si>
+    <t>Eos/William Morrow</t>
+  </si>
+  <si>
+    <t>Hanover Square</t>
+  </si>
+  <si>
+    <t>Harcourt</t>
+  </si>
+  <si>
+    <t>Harper Design</t>
+  </si>
+  <si>
+    <t>Harper Paperbacks</t>
+  </si>
+  <si>
+    <t>Harvest/Harcourt</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>HQN</t>
+  </si>
+  <si>
+    <t>It/HarperCollins</t>
+  </si>
+  <si>
+    <t>Jim Collins/HarperCollins</t>
+  </si>
+  <si>
+    <t>Joanna Cotler/HarperCollins</t>
+  </si>
+  <si>
+    <t>Mariner/Houghton Mifflin</t>
+  </si>
+  <si>
+    <t>Park Row</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Morrow/Michael Mann</t>
+  </si>
+  <si>
+    <t>Haymarket Media Group</t>
+  </si>
+  <si>
+    <t>Haymarket</t>
+  </si>
+  <si>
+    <t>IDW Publishing</t>
+  </si>
+  <si>
+    <t>Top Shelf Productions</t>
+  </si>
+  <si>
+    <t>Citadel/Kensington</t>
+  </si>
+  <si>
+    <t>Kensington Cozies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zebra </t>
+  </si>
+  <si>
+    <t>Kensington Publishing</t>
+  </si>
+  <si>
+    <t>Library of America</t>
+  </si>
+  <si>
+    <t>Wesnesday</t>
+  </si>
+  <si>
+    <t>Simon Spotlight Entertainment</t>
+  </si>
+  <si>
+    <t>Simon Element</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>McElderry/Simon &amp; Schuster</t>
+  </si>
+  <si>
+    <t>Paula Wiseman/Simon &amp; Schuster</t>
+  </si>
+  <si>
+    <t>Pocket</t>
+  </si>
+  <si>
+    <t>Regnery Kids</t>
+  </si>
+  <si>
+    <t>Waterhouse</t>
+  </si>
+  <si>
+    <t>Wiseman/Simon &amp; Schuster</t>
+  </si>
+  <si>
+    <t>Atheneum</t>
+  </si>
+  <si>
+    <t>Atheneum/Caitlyn Dlouhy</t>
+  </si>
+  <si>
+    <t>Atria/Emily Bestler</t>
+  </si>
+  <si>
+    <t>Atria/One Signal</t>
+  </si>
+  <si>
+    <t>Avid Reader/Simon &amp; Schuster</t>
+  </si>
+  <si>
+    <t>Beach Lane</t>
+  </si>
+  <si>
+    <t>Denene Millner</t>
+  </si>
+  <si>
+    <t>Downtown</t>
+  </si>
+  <si>
+    <t>NAL Caliber</t>
+  </si>
+  <si>
+    <t>NAL Jam</t>
+  </si>
+  <si>
+    <t>Swoon Reads</t>
+  </si>
+  <si>
+    <t>Neal Porter/Roaring Brook</t>
+  </si>
+  <si>
+    <t>Roaring Brook</t>
+  </si>
+  <si>
+    <t>Metropolitan</t>
+  </si>
+  <si>
+    <t>Page Street</t>
+  </si>
+  <si>
+    <t>First Second</t>
+  </si>
+  <si>
+    <t>Sqaure Fish</t>
+  </si>
+  <si>
+    <t>Meghan March</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>Oxford University</t>
+  </si>
+  <si>
+    <t>Peachtree Publishers</t>
+  </si>
+  <si>
+    <t>Peachtree</t>
+  </si>
+  <si>
+    <t>Bantam/Dell</t>
+  </si>
+  <si>
+    <t>Ballantine/ESPN</t>
+  </si>
+  <si>
+    <t>Del Rey/Ballantine</t>
+  </si>
+  <si>
+    <t>Del Rey/Ballantine/Lucas</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Dutton Caliber</t>
+  </si>
+  <si>
+    <t>Hudson Street</t>
+  </si>
+  <si>
+    <t>Nan A. Talese/Doubleday</t>
+  </si>
+  <si>
+    <t>Nancy Paulsen</t>
+  </si>
+  <si>
+    <t>Penguin Life</t>
+  </si>
+  <si>
+    <t>Penguin Teen</t>
+  </si>
+  <si>
+    <t>Penguin/Portfolio</t>
+  </si>
+  <si>
+    <t>Peter Yarrow/Imagine</t>
+  </si>
+  <si>
+    <t>Philomel/Speak</t>
+  </si>
+  <si>
+    <t>Presidio</t>
+  </si>
+  <si>
+    <t>Quirk/Penguin</t>
+  </si>
+  <si>
+    <t>Schwartz &amp; Wade</t>
+  </si>
+  <si>
+    <t>Vintage Contemporaries</t>
+  </si>
+  <si>
+    <t>Vintage Departures</t>
+  </si>
+  <si>
+    <t>World of Eric Carle</t>
+  </si>
+  <si>
+    <t>Sourcebooks Fire</t>
+  </si>
+  <si>
+    <t>Sourcebooks Landmark</t>
+  </si>
+  <si>
+    <t>Bloom Books</t>
+  </si>
+  <si>
+    <t>Steerforth Press</t>
+  </si>
+  <si>
+    <t>Times Publishing</t>
+  </si>
+  <si>
+    <t>Triumph Books</t>
+  </si>
+  <si>
+    <t>Steerforth</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>Triumph</t>
+  </si>
+  <si>
+    <t>Zando Projects</t>
+  </si>
+  <si>
+    <t>Zando</t>
+  </si>
+  <si>
+    <t>WND Press Publishing</t>
+  </si>
+  <si>
+    <t>WND</t>
+  </si>
+  <si>
+    <t>Wiley Publishing</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1225,6 +1631,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3044,7 +3453,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC9C22ED-C986-D24B-AF71-A861AA7A2AAB}" name="PivotTable10" cacheId="84" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC9C22ED-C986-D24B-AF71-A861AA7A2AAB}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E1:E472" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -5213,10 +5622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C46D89F-F5AB-4742-AA83-7B34B403792F}">
-  <dimension ref="A1:N472"/>
+  <dimension ref="A1:N483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="B336" sqref="B336"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B483" sqref="B483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5336,10 +5745,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>93</v>
@@ -5347,10 +5756,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -5358,10 +5767,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>1</v>
@@ -5369,10 +5778,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>93</v>
@@ -5380,10 +5789,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>377</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
@@ -5391,10 +5800,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>95</v>
@@ -5402,10 +5811,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>95</v>
@@ -5413,10 +5822,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>277</v>
@@ -5424,10 +5833,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
+        <v>277</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>101</v>
@@ -5435,10 +5844,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>284</v>
@@ -5446,10 +5855,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>127</v>
@@ -5457,10 +5866,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
+        <v>302</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>106</v>
@@ -5468,10 +5877,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>106</v>
@@ -5479,10 +5888,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>298</v>
@@ -5490,10 +5899,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>247</v>
@@ -5501,10 +5910,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>12</v>
@@ -5512,10 +5921,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>12</v>
@@ -5523,10 +5932,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>113</v>
@@ -5534,10 +5943,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>381</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>113</v>
@@ -5545,10 +5954,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>115</v>
@@ -5556,10 +5965,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>115</v>
@@ -5567,10 +5976,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>114</v>
@@ -5578,10 +5987,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>373</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>114</v>
@@ -5589,10 +5998,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>382</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>14</v>
@@ -5600,10 +6009,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>384</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>384</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>14</v>
@@ -5611,10 +6020,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>15</v>
@@ -5622,10 +6031,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -5633,10 +6042,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>116</v>
@@ -5644,10 +6053,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>116</v>
@@ -5655,10 +6064,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>19</v>
@@ -5666,10 +6075,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>19</v>
@@ -5677,10 +6086,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>385</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>282</v>
@@ -5688,10 +6097,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>387</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>120</v>
@@ -5699,10 +6108,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>29</v>
@@ -5710,10 +6119,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>28</v>
@@ -5721,10 +6130,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>388</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>29</v>
@@ -5732,10 +6141,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>30</v>
@@ -5743,10 +6152,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>390</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>285</v>
@@ -5754,10 +6163,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>391</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>136</v>
@@ -5765,10 +6174,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>286</v>
@@ -5776,10 +6185,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>141</v>
@@ -5787,10 +6196,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>287</v>
@@ -5798,10 +6207,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>394</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>145</v>
@@ -5809,10 +6218,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>288</v>
@@ -5820,10 +6229,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>146</v>
@@ -5831,10 +6240,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>317</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>289</v>
@@ -5842,10 +6251,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>150</v>
@@ -5853,10 +6262,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>10</v>
@@ -5864,10 +6273,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>100</v>
@@ -5875,10 +6284,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>102</v>
@@ -5886,10 +6295,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>397</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>9</v>
@@ -5897,10 +6306,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>342</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>105</v>
@@ -5908,10 +6317,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>398</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>119</v>
@@ -5919,10 +6328,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>121</v>
@@ -5930,10 +6339,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>399</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>122</v>
@@ -5941,10 +6350,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>400</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>137</v>
@@ -5952,10 +6361,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>401</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>37</v>
@@ -5963,10 +6372,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>402</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>147</v>
@@ -5974,10 +6383,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>403</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>403</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>148</v>
@@ -5985,10 +6394,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>149</v>
@@ -5996,10 +6405,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>406</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>152</v>
@@ -6007,10 +6416,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>174</v>
@@ -6018,10 +6427,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>319</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>319</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>175</v>
@@ -6029,10 +6438,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>319</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>404</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>179</v>
@@ -6040,10 +6449,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>320</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>321</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>180</v>
@@ -6051,10 +6460,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>322</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>186</v>
@@ -6062,10 +6471,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>52</v>
@@ -6073,10 +6482,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>409</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>193</v>
@@ -6084,10 +6493,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>53</v>
@@ -6095,10 +6504,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>287</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>204</v>
@@ -6106,10 +6515,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>80</v>
@@ -6117,10 +6526,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>266</v>
@@ -6128,10 +6537,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>323</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>267</v>
@@ -6139,10 +6548,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>410</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>411</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>273</v>
@@ -6150,10 +6559,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>274</v>
@@ -6161,10 +6570,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>325</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>17</v>
@@ -6172,10 +6581,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>97</v>
@@ -6183,10 +6592,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>103</v>
@@ -6194,10 +6603,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>104</v>
@@ -6205,10 +6614,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>16</v>
@@ -6216,10 +6625,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>22</v>
@@ -6227,10 +6636,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>130</v>
@@ -6238,10 +6647,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>26</v>
@@ -6249,10 +6658,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>131</v>
@@ -6260,10 +6669,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>33</v>
@@ -6271,10 +6680,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>133</v>
@@ -6282,10 +6691,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>153</v>
@@ -6293,10 +6702,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>154</v>
@@ -6307,7 +6716,7 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>155</v>
@@ -6315,10 +6724,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>40</v>
@@ -6329,7 +6738,7 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>156</v>
@@ -6337,10 +6746,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>41</v>
@@ -6348,10 +6757,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>157</v>
@@ -6362,7 +6771,7 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>42</v>
@@ -6370,10 +6779,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>158</v>
@@ -6381,10 +6790,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>43</v>
@@ -6392,10 +6801,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>278</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>159</v>
@@ -6403,10 +6812,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>160</v>
@@ -6414,10 +6823,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>17</v>
@@ -6425,10 +6834,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>161</v>
@@ -6436,10 +6845,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>44</v>
@@ -6447,10 +6856,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>45</v>
@@ -6458,10 +6867,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>162</v>
@@ -6469,10 +6878,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>314</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>46</v>
@@ -6480,10 +6889,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>412</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>163</v>
@@ -6491,10 +6900,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>117</v>
+        <v>413</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>177</v>
@@ -6502,10 +6911,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>281</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>118</v>
+        <v>414</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>191</v>
@@ -6516,7 +6925,7 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>119</v>
+        <v>415</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>197</v>
@@ -6524,10 +6933,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>282</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>198</v>
@@ -6538,7 +6947,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>121</v>
+        <v>346</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>57</v>
@@ -6549,7 +6958,7 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>416</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>203</v>
@@ -6557,10 +6966,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>417</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>207</v>
@@ -6568,10 +6977,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>355</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>66</v>
@@ -6579,10 +6988,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>418</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>237</v>
@@ -6590,10 +6999,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>243</v>
@@ -6601,10 +7010,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>79</v>
@@ -6612,10 +7021,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>254</v>
@@ -6623,10 +7032,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>270</v>
@@ -6637,7 +7046,7 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>271</v>
@@ -6648,7 +7057,7 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>88</v>
@@ -6656,10 +7065,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>276</v>
@@ -6667,10 +7076,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>279</v>
@@ -6681,7 +7090,7 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>109</v>
@@ -6689,10 +7098,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>110</v>
@@ -6700,10 +7109,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>111</v>
@@ -6711,10 +7120,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>164</v>
@@ -6722,10 +7131,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>300</v>
@@ -6733,10 +7142,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>272</v>
@@ -6744,10 +7153,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>47</v>
@@ -6755,10 +7164,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>47</v>
@@ -6766,10 +7175,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>166</v>
@@ -6777,10 +7186,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>165</v>
@@ -6788,10 +7197,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>166</v>
@@ -6799,10 +7208,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>172</v>
@@ -6810,10 +7219,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>287</v>
+        <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>171</v>
@@ -6821,10 +7230,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>288</v>
+        <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>172</v>
@@ -6832,10 +7241,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>290</v>
@@ -6843,10 +7252,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>173</v>
@@ -6854,10 +7263,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>278</v>
@@ -6865,10 +7274,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>108</v>
@@ -6876,10 +7285,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>240</v>
@@ -6887,10 +7296,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>299</v>
@@ -6901,7 +7310,7 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>268</v>
@@ -6912,7 +7321,7 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>269</v>
@@ -6923,7 +7332,7 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>182</v>
@@ -6934,7 +7343,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>182</v>
@@ -6945,7 +7354,7 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>188</v>
@@ -6956,7 +7365,7 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>188</v>
@@ -6967,7 +7376,7 @@
         <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>51</v>
@@ -6978,7 +7387,7 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>51</v>
@@ -6989,7 +7398,7 @@
         <v>17</v>
       </c>
       <c r="B152" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>195</v>
@@ -7000,7 +7409,7 @@
         <v>17</v>
       </c>
       <c r="B153" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>195</v>
@@ -7011,7 +7420,7 @@
         <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>21</v>
@@ -7019,10 +7428,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>86</v>
@@ -7030,10 +7439,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="B156" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>20</v>
@@ -7041,10 +7450,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="B157" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>34</v>
@@ -7052,10 +7461,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>138</v>
@@ -7063,10 +7472,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>35</v>
@@ -7074,10 +7483,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>139</v>
@@ -7085,10 +7494,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>151</v>
@@ -7096,10 +7505,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
+        <v>419</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>167</v>
@@ -7107,10 +7516,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>48</v>
@@ -7118,10 +7527,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>173</v>
+        <v>420</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>189</v>
@@ -7129,10 +7538,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>421</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>190</v>
@@ -7140,10 +7549,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>175</v>
+        <v>422</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>196</v>
@@ -7151,10 +7560,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>176</v>
+        <v>423</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>199</v>
@@ -7165,7 +7574,7 @@
         <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>177</v>
+        <v>424</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>200</v>
@@ -7173,10 +7582,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>56</v>
@@ -7184,10 +7593,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>179</v>
+        <v>425</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>220</v>
@@ -7195,10 +7604,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>180</v>
+        <v>426</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>238</v>
@@ -7206,10 +7615,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>427</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>76</v>
@@ -7217,10 +7626,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="B173" t="s">
-        <v>182</v>
+        <v>428</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>77</v>
@@ -7228,10 +7637,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
+        <v>429</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>245</v>
@@ -7239,10 +7648,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B175" t="s">
-        <v>184</v>
+        <v>430</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>250</v>
@@ -7250,10 +7659,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>185</v>
+        <v>431</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>251</v>
@@ -7261,10 +7670,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B177" t="s">
-        <v>186</v>
+        <v>432</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>255</v>
@@ -7272,10 +7681,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>291</v>
+        <v>17</v>
       </c>
       <c r="B178" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>256</v>
@@ -7283,10 +7692,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="B179" t="s">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>257</v>
@@ -7294,10 +7703,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B180" t="s">
-        <v>189</v>
+        <v>434</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>283</v>
@@ -7305,10 +7714,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B181" t="s">
-        <v>190</v>
+        <v>435</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>123</v>
@@ -7319,7 +7728,7 @@
         <v>17</v>
       </c>
       <c r="B182" t="s">
-        <v>191</v>
+        <v>436</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>55</v>
@@ -7327,10 +7736,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B183" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>55</v>
@@ -7338,10 +7747,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>202</v>
@@ -7349,10 +7758,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>202</v>
@@ -7360,10 +7769,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B186" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>293</v>
@@ -7371,10 +7780,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>21</v>
+        <v>279</v>
       </c>
       <c r="B187" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>205</v>
@@ -7382,10 +7791,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>294</v>
@@ -7393,10 +7802,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="B189" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>209</v>
@@ -7404,10 +7813,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B190" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>210</v>
@@ -7415,10 +7824,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>21</v>
+        <v>437</v>
       </c>
       <c r="B191" t="s">
-        <v>200</v>
+        <v>438</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>210</v>
@@ -7426,10 +7835,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="B192" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>295</v>
@@ -7437,10 +7846,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="B193" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>211</v>
@@ -7448,10 +7857,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="B194" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>59</v>
@@ -7459,10 +7868,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>326</v>
       </c>
       <c r="B195" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>58</v>
@@ -7470,10 +7879,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>214</v>
@@ -7481,10 +7890,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>213</v>
@@ -7492,10 +7901,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>214</v>
@@ -7503,10 +7912,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>7</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>217</v>
@@ -7514,10 +7923,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>294</v>
+        <v>439</v>
       </c>
       <c r="B200" t="s">
-        <v>209</v>
+        <v>440</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>217</v>
@@ -7525,10 +7934,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="B201" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7536,10 +7945,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B202" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>94</v>
@@ -7547,10 +7956,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="B203" t="s">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>98</v>
@@ -7558,10 +7967,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="B204" t="s">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>99</v>
@@ -7569,10 +7978,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="B205" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>6</v>
@@ -7580,10 +7989,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="B206" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>11</v>
@@ -7591,10 +8000,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="B207" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>107</v>
@@ -7602,21 +8011,21 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="B208" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>7</v>
-      </c>
-      <c r="B209" t="s">
-        <v>218</v>
+        <v>444</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>112</v>
@@ -7624,10 +8033,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>7</v>
+        <v>444</v>
       </c>
       <c r="B210" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>18</v>
@@ -7635,10 +8044,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>21</v>
+        <v>444</v>
       </c>
       <c r="B211" t="s">
-        <v>220</v>
+        <v>442</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>23</v>
@@ -7646,10 +8055,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>7</v>
+        <v>444</v>
       </c>
       <c r="B212" t="s">
-        <v>221</v>
+        <v>443</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>24</v>
@@ -7657,10 +8066,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>331</v>
+      </c>
+      <c r="B213" t="s">
         <v>5</v>
-      </c>
-      <c r="B213" t="s">
-        <v>222</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>124</v>
@@ -7668,10 +8077,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>5</v>
+        <v>332</v>
       </c>
       <c r="B214" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>125</v>
@@ -7679,10 +8088,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="B215" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>126</v>
@@ -7690,10 +8099,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>7</v>
+        <v>445</v>
       </c>
       <c r="B216" t="s">
-        <v>225</v>
+        <v>445</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>128</v>
@@ -7701,10 +8110,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B217" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>25</v>
@@ -7712,10 +8121,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="B218" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>129</v>
@@ -7723,10 +8132,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>228</v>
+        <v>374</v>
       </c>
       <c r="B219" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>27</v>
@@ -7734,10 +8143,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="B220" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>31</v>
@@ -7745,10 +8154,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>7</v>
+        <v>335</v>
       </c>
       <c r="B221" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>32</v>
@@ -7756,10 +8165,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B222" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>38</v>
@@ -7767,10 +8176,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B223" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>39</v>
@@ -7778,10 +8187,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>297</v>
+        <v>21</v>
       </c>
       <c r="B224" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>168</v>
@@ -7789,10 +8198,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B225" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>169</v>
@@ -7800,10 +8209,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B226" t="s">
-        <v>235</v>
+        <v>56</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>170</v>
@@ -7811,10 +8220,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B227" t="s">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>176</v>
@@ -7822,10 +8231,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B228" t="s">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>183</v>
@@ -7836,7 +8245,7 @@
         <v>21</v>
       </c>
       <c r="B229" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>184</v>
@@ -7844,10 +8253,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="B230" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>49</v>
@@ -7855,10 +8264,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="B231" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>185</v>
@@ -7866,10 +8275,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B232" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>50</v>
@@ -7877,10 +8286,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B233" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>201</v>
@@ -7888,10 +8297,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B234" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>206</v>
@@ -7899,10 +8308,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="B235" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>208</v>
@@ -7913,7 +8322,7 @@
         <v>21</v>
       </c>
       <c r="B236" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>60</v>
@@ -7921,10 +8330,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B237" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>215</v>
@@ -7932,10 +8341,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>298</v>
+        <v>21</v>
       </c>
       <c r="B238" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>216</v>
@@ -7943,10 +8352,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B239" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>61</v>
@@ -7954,10 +8363,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B240" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>218</v>
@@ -7968,7 +8377,7 @@
         <v>21</v>
       </c>
       <c r="B241" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>219</v>
@@ -7979,7 +8388,7 @@
         <v>21</v>
       </c>
       <c r="B242" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>62</v>
@@ -7987,10 +8396,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B243" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>63</v>
@@ -7998,10 +8407,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B244" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>64</v>
@@ -8009,10 +8418,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B245" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>221</v>
@@ -8023,7 +8432,7 @@
         <v>21</v>
       </c>
       <c r="B246" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>224</v>
@@ -8034,7 +8443,7 @@
         <v>21</v>
       </c>
       <c r="B247" t="s">
-        <v>256</v>
+        <v>446</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>225</v>
@@ -8045,7 +8454,7 @@
         <v>21</v>
       </c>
       <c r="B248" t="s">
-        <v>257</v>
+        <v>468</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>226</v>
@@ -8053,10 +8462,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B249" t="s">
-        <v>258</v>
+        <v>466</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>65</v>
@@ -8064,10 +8473,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>5</v>
-      </c>
-      <c r="B250" t="s">
-        <v>259</v>
+        <v>21</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>467</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>67</v>
@@ -8075,10 +8484,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B251" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>229</v>
@@ -8086,10 +8495,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B252" t="s">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>230</v>
@@ -8097,10 +8506,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="B253" t="s">
-        <v>261</v>
+        <v>470</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>68</v>
@@ -8108,10 +8517,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B254" t="s">
-        <v>262</v>
+        <v>471</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>231</v>
@@ -8119,10 +8528,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B255" t="s">
-        <v>263</v>
+        <v>472</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>232</v>
@@ -8130,10 +8539,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B256" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>69</v>
@@ -8141,10 +8550,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
       <c r="B257" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>235</v>
@@ -8152,10 +8561,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="B258" t="s">
-        <v>266</v>
+        <v>123</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>236</v>
@@ -8163,21 +8572,21 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="B259" t="s">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>299</v>
-      </c>
-      <c r="B260" t="s">
-        <v>268</v>
+      <c r="A260" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>473</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>242</v>
@@ -8185,10 +8594,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B261" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>246</v>
@@ -8196,10 +8605,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B262" t="s">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>248</v>
@@ -8207,10 +8616,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>340</v>
+      </c>
+      <c r="B263" t="s">
         <v>17</v>
-      </c>
-      <c r="B263" t="s">
-        <v>271</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>78</v>
@@ -8218,10 +8627,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>300</v>
+        <v>202</v>
       </c>
       <c r="B264" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>249</v>
@@ -8229,10 +8638,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
       <c r="B265" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>252</v>
@@ -8240,10 +8649,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="B266" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="E266" s="4" t="s">
         <v>262</v>
@@ -8251,10 +8660,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>7</v>
+        <v>342</v>
       </c>
       <c r="B267" t="s">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>83</v>
@@ -8262,10 +8671,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>343</v>
+      </c>
+      <c r="B268" t="s">
         <v>17</v>
-      </c>
-      <c r="B268" t="s">
-        <v>276</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>263</v>
@@ -8273,10 +8682,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B269" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>264</v>
@@ -8284,10 +8693,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>265</v>
@@ -8295,10 +8704,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="B271" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>275</v>
@@ -8306,10 +8715,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B272" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>296</v>
@@ -8317,10 +8726,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="B273" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="E273" s="4" t="s">
         <v>227</v>
@@ -8328,10 +8737,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>308</v>
+        <v>59</v>
       </c>
       <c r="B274" t="s">
-        <v>301</v>
+        <v>58</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>228</v>
@@ -8339,10 +8748,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="B275" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="E275" s="4" t="s">
         <v>228</v>
@@ -8350,10 +8759,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>291</v>
@@ -8361,10 +8770,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="B277" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E277" s="4" t="s">
         <v>187</v>
@@ -8372,10 +8781,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>312</v>
+        <v>474</v>
       </c>
       <c r="B278" t="s">
-        <v>7</v>
+        <v>475</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>297</v>
@@ -8383,10 +8792,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="B279" t="s">
-        <v>313</v>
+        <v>7</v>
       </c>
       <c r="E279" s="4" t="s">
         <v>233</v>
@@ -8394,10 +8803,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="B280" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>70</v>
@@ -8405,10 +8814,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>315</v>
+        <v>476</v>
       </c>
       <c r="B281" t="s">
-        <v>315</v>
+        <v>477</v>
       </c>
       <c r="E281" s="4" t="s">
         <v>70</v>
@@ -8416,10 +8825,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="B282" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>71</v>
@@ -8427,10 +8836,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>317</v>
+        <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>71</v>
@@ -8438,10 +8847,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>318</v>
+        <v>7</v>
       </c>
       <c r="B284" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>239</v>
@@ -8449,10 +8858,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>319</v>
+        <v>7</v>
       </c>
       <c r="B285" t="s">
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="E285" s="4" t="s">
         <v>239</v>
@@ -8460,10 +8869,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>320</v>
+        <v>7</v>
       </c>
       <c r="B286" t="s">
-        <v>321</v>
+        <v>6</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>5</v>
@@ -8471,10 +8880,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>322</v>
+        <v>7</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E287" s="4" t="s">
         <v>96</v>
@@ -8482,10 +8891,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="B288" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>4</v>
@@ -8493,10 +8902,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>324</v>
+        <v>7</v>
       </c>
       <c r="B289" t="s">
-        <v>324</v>
+        <v>13</v>
       </c>
       <c r="E289" s="4" t="s">
         <v>8</v>
@@ -8504,10 +8913,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>325</v>
+        <v>7</v>
       </c>
       <c r="B290" t="s">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>132</v>
@@ -8515,10 +8924,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>165</v>
-      </c>
-      <c r="B291" t="s">
-        <v>166</v>
+        <v>7</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>134</v>
@@ -8526,10 +8935,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E292" s="4" t="s">
         <v>135</v>
@@ -8537,10 +8946,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>327</v>
+        <v>7</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="E293" s="4" t="s">
         <v>140</v>
@@ -8548,10 +8957,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>328</v>
+        <v>7</v>
       </c>
       <c r="B294" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E294" s="4" t="s">
         <v>142</v>
@@ -8559,10 +8968,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>329</v>
+        <v>7</v>
       </c>
       <c r="B295" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>143</v>
@@ -8570,10 +8979,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>330</v>
+        <v>7</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="E296" s="4" t="s">
         <v>36</v>
@@ -8581,10 +8990,10 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>331</v>
+        <v>7</v>
       </c>
       <c r="B297" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>144</v>
@@ -8592,10 +9001,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>332</v>
+        <v>7</v>
       </c>
       <c r="B298" t="s">
-        <v>333</v>
+        <v>126</v>
       </c>
       <c r="E298" s="4" t="s">
         <v>178</v>
@@ -8603,10 +9012,10 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>334</v>
+        <v>7</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E299" s="4" t="s">
         <v>181</v>
@@ -8614,10 +9023,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>335</v>
+        <v>7</v>
       </c>
       <c r="B300" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E300" s="4" t="s">
         <v>192</v>
@@ -8625,10 +9034,10 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>336</v>
+        <v>7</v>
       </c>
       <c r="B301" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="E301" s="4" t="s">
         <v>54</v>
@@ -8636,10 +9045,10 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>337</v>
+        <v>7</v>
       </c>
       <c r="B302" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E302" s="4" t="s">
         <v>222</v>
@@ -8647,10 +9056,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>338</v>
+        <v>7</v>
       </c>
       <c r="B303" t="s">
-        <v>339</v>
+        <v>31</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>223</v>
@@ -8658,10 +9067,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>340</v>
+        <v>7</v>
       </c>
       <c r="B304" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E304" s="4" t="s">
         <v>234</v>
@@ -8669,10 +9078,10 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>341</v>
+        <v>7</v>
       </c>
       <c r="B305" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>72</v>
@@ -8680,10 +9089,10 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>342</v>
+        <v>7</v>
       </c>
       <c r="B306" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>5</v>
@@ -8691,10 +9100,10 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>343</v>
+        <v>7</v>
       </c>
       <c r="B307" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>253</v>
@@ -8702,10 +9111,10 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>344</v>
+        <v>7</v>
       </c>
       <c r="B308" t="s">
-        <v>344</v>
+        <v>169</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>258</v>
@@ -8713,10 +9122,10 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>345</v>
+        <v>7</v>
       </c>
       <c r="B309" t="s">
-        <v>345</v>
+        <v>170</v>
       </c>
       <c r="E309" s="4" t="s">
         <v>259</v>
@@ -8724,10 +9133,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>346</v>
+        <v>7</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="E310" s="4" t="s">
         <v>84</v>
@@ -8735,10 +9144,10 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>347</v>
+        <v>7</v>
       </c>
       <c r="B311" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="E311" s="4" t="s">
         <v>85</v>
@@ -8746,10 +9155,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>348</v>
+        <v>7</v>
       </c>
       <c r="B312" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>74</v>
@@ -8757,10 +9166,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>349</v>
+        <v>7</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E313" s="4" t="s">
         <v>73</v>
@@ -8768,10 +9177,10 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>350</v>
+        <v>7</v>
       </c>
       <c r="B314" t="s">
-        <v>351</v>
+        <v>185</v>
       </c>
       <c r="E314" s="4" t="s">
         <v>75</v>
@@ -8779,10 +9188,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>352</v>
+        <v>7</v>
       </c>
       <c r="B315" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="E315" s="3" t="s">
         <v>244</v>
@@ -8790,10 +9199,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>353</v>
+        <v>7</v>
       </c>
       <c r="B316" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="E316" s="4" t="s">
         <v>244</v>
@@ -8801,10 +9210,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>354</v>
+        <v>7</v>
       </c>
       <c r="B317" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>280</v>
@@ -8812,10 +9221,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>464</v>
       </c>
       <c r="E318" s="4" t="s">
         <v>117</v>
@@ -8823,10 +9232,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="B319" t="s">
-        <v>356</v>
+        <v>465</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>82</v>
@@ -8834,10 +9243,10 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="B320" t="s">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="E320" s="4" t="s">
         <v>260</v>
@@ -8845,10 +9254,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>358</v>
+        <v>7</v>
       </c>
       <c r="B321" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="E321" s="4" t="s">
         <v>82</v>
@@ -8856,10 +9265,10 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>359</v>
+        <v>7</v>
       </c>
       <c r="B322" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E322" s="4" t="s">
         <v>81</v>
@@ -8867,10 +9276,10 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>360</v>
+        <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>261</v>
@@ -8878,10 +9287,10 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>361</v>
+        <v>7</v>
       </c>
       <c r="B324" t="s">
-        <v>362</v>
+        <v>216</v>
       </c>
       <c r="E324" s="4" t="s">
         <v>261</v>
@@ -8889,10 +9298,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="B325" t="s">
-        <v>362</v>
+        <v>61</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>292</v>
@@ -8900,10 +9309,10 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>363</v>
+        <v>7</v>
       </c>
       <c r="B326" t="s">
-        <v>364</v>
+        <v>218</v>
       </c>
       <c r="E326" s="4" t="s">
         <v>194</v>
@@ -8911,10 +9320,10 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>365</v>
+        <v>7</v>
       </c>
       <c r="B327" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="E327" s="4" t="s">
         <v>212</v>
@@ -8922,10 +9331,10 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="B328" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>281</v>
@@ -8933,10 +9342,10 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>367</v>
+        <v>7</v>
       </c>
       <c r="B329" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E329" s="4" t="s">
         <v>118</v>
@@ -8944,10 +9353,10 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>368</v>
+        <v>7</v>
       </c>
       <c r="B330" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>87</v>
@@ -8955,10 +9364,10 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="B331" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="E331" s="4" t="s">
         <v>87</v>
@@ -8966,10 +9375,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>369</v>
+        <v>7</v>
       </c>
       <c r="B332" t="s">
-        <v>370</v>
+        <v>224</v>
       </c>
       <c r="E332" s="3" t="s">
         <v>91</v>
@@ -8977,10 +9386,10 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>371</v>
+        <v>7</v>
       </c>
       <c r="B333" t="s">
-        <v>372</v>
+        <v>225</v>
       </c>
       <c r="E333" s="4" t="s">
         <v>91</v>
@@ -8988,10 +9397,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>373</v>
+        <v>7</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>302</v>
@@ -8999,10 +9408,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>374</v>
+        <v>7</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E335" s="4" t="s">
         <v>303</v>
@@ -9010,10 +9419,10 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>375</v>
+        <v>7</v>
       </c>
       <c r="B336" t="s">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>304</v>
@@ -9021,694 +9430,1592 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>376</v>
+        <v>7</v>
       </c>
       <c r="B337" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="E337" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>7</v>
+      </c>
+      <c r="B338" t="s">
+        <v>230</v>
+      </c>
       <c r="E338" s="3" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>7</v>
+      </c>
+      <c r="B339" t="s">
+        <v>68</v>
+      </c>
       <c r="E339" s="4" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>7</v>
+      </c>
+      <c r="B340" t="s">
+        <v>231</v>
+      </c>
       <c r="E340" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>7</v>
+      </c>
+      <c r="B341" t="s">
+        <v>232</v>
+      </c>
       <c r="E341" s="4" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>7</v>
+      </c>
+      <c r="B342" t="s">
+        <v>69</v>
+      </c>
       <c r="E342" s="3" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>7</v>
+      </c>
+      <c r="B343" t="s">
+        <v>235</v>
+      </c>
       <c r="E343" s="4" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344" t="s">
+        <v>236</v>
+      </c>
       <c r="E344" s="3" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>7</v>
+      </c>
+      <c r="B345" t="s">
+        <v>241</v>
+      </c>
       <c r="E345" s="4" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>7</v>
+      </c>
+      <c r="B346" t="s">
+        <v>242</v>
+      </c>
       <c r="E346" s="3" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>7</v>
+      </c>
+      <c r="B347" t="s">
+        <v>246</v>
+      </c>
       <c r="E347" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348" t="s">
+        <v>248</v>
+      </c>
       <c r="E348" s="3" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>7</v>
+      </c>
+      <c r="B349" t="s">
+        <v>78</v>
+      </c>
       <c r="E349" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>7</v>
+      </c>
+      <c r="B350" t="s">
+        <v>249</v>
+      </c>
       <c r="E350" s="3" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351" t="s">
+        <v>252</v>
+      </c>
       <c r="E351" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>7</v>
+      </c>
+      <c r="B352" t="s">
+        <v>262</v>
+      </c>
       <c r="E352" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>7</v>
+      </c>
+      <c r="B353" t="s">
+        <v>83</v>
+      </c>
       <c r="E353" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>7</v>
+      </c>
+      <c r="B354" t="s">
+        <v>263</v>
+      </c>
       <c r="E354" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>7</v>
+      </c>
+      <c r="B355" t="s">
+        <v>264</v>
+      </c>
       <c r="E355" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>7</v>
+      </c>
+      <c r="B356" t="s">
+        <v>265</v>
+      </c>
       <c r="E356" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="357" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357" t="s">
+        <v>275</v>
+      </c>
       <c r="E357" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="358" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>349</v>
+      </c>
+      <c r="B358" t="s">
+        <v>10</v>
+      </c>
       <c r="E358" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="359" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>296</v>
+      </c>
+      <c r="B359" t="s">
+        <v>227</v>
+      </c>
       <c r="E359" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="360" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>350</v>
+      </c>
+      <c r="B360" t="s">
+        <v>351</v>
+      </c>
       <c r="E360" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="361" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>352</v>
+      </c>
+      <c r="B361" t="s">
+        <v>228</v>
+      </c>
       <c r="E361" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>228</v>
+      </c>
+      <c r="B362" t="s">
+        <v>228</v>
+      </c>
       <c r="E362" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>291</v>
+      </c>
+      <c r="B363" t="s">
+        <v>187</v>
+      </c>
       <c r="E363" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>353</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
       <c r="E364" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>297</v>
+      </c>
+      <c r="B365" t="s">
+        <v>233</v>
+      </c>
       <c r="E365" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>354</v>
+      </c>
+      <c r="B366" t="s">
+        <v>301</v>
+      </c>
       <c r="E366" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>70</v>
+      </c>
+      <c r="B367" t="s">
+        <v>70</v>
+      </c>
       <c r="E367" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>355</v>
+      </c>
+      <c r="B368" t="s">
+        <v>10</v>
+      </c>
       <c r="E368" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>71</v>
+      </c>
+      <c r="B369" t="s">
+        <v>71</v>
+      </c>
       <c r="E369" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>239</v>
+      </c>
+      <c r="B370" t="s">
+        <v>239</v>
+      </c>
       <c r="E370" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>356</v>
+      </c>
+      <c r="B371" t="s">
+        <v>356</v>
+      </c>
       <c r="E371" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>357</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
       <c r="E372" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373" t="s">
+        <v>4</v>
+      </c>
       <c r="E373" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>5</v>
+      </c>
+      <c r="B374" t="s">
+        <v>8</v>
+      </c>
       <c r="E374" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>5</v>
+      </c>
+      <c r="B375" t="s">
+        <v>36</v>
+      </c>
       <c r="E375" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="376" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>5</v>
+      </c>
+      <c r="B376" t="s">
+        <v>54</v>
+      </c>
       <c r="E376" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="377" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>5</v>
+      </c>
+      <c r="B377" t="s">
+        <v>72</v>
+      </c>
       <c r="E377" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="378" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>5</v>
+      </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
       <c r="E378" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="379" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>5</v>
+      </c>
+      <c r="B379" t="s">
+        <v>84</v>
+      </c>
       <c r="E379" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="380" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>5</v>
+      </c>
+      <c r="B380" t="s">
+        <v>85</v>
+      </c>
       <c r="E380" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="381" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>5</v>
+      </c>
+      <c r="B381" t="s">
+        <v>96</v>
+      </c>
       <c r="E381" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>5</v>
+      </c>
+      <c r="B382" t="s">
+        <v>132</v>
+      </c>
       <c r="E382" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="383" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>5</v>
+      </c>
+      <c r="B383" t="s">
+        <v>134</v>
+      </c>
       <c r="E383" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>5</v>
+      </c>
+      <c r="B384" t="s">
+        <v>135</v>
+      </c>
       <c r="E384" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>5</v>
+      </c>
+      <c r="B385" t="s">
+        <v>140</v>
+      </c>
       <c r="E385" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="386" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>5</v>
+      </c>
+      <c r="B386" t="s">
+        <v>142</v>
+      </c>
       <c r="E386" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="387" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>5</v>
+      </c>
+      <c r="B387" t="s">
+        <v>143</v>
+      </c>
       <c r="E387" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>5</v>
+      </c>
+      <c r="B388" t="s">
+        <v>144</v>
+      </c>
       <c r="E388" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="389" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>5</v>
+      </c>
+      <c r="B389" t="s">
+        <v>178</v>
+      </c>
       <c r="E389" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="390" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>5</v>
+      </c>
+      <c r="B390" t="s">
+        <v>181</v>
+      </c>
       <c r="E390" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="391" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>5</v>
+      </c>
+      <c r="B391" t="s">
+        <v>192</v>
+      </c>
       <c r="E391" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>5</v>
+      </c>
+      <c r="B392" t="s">
+        <v>222</v>
+      </c>
       <c r="E392" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="393" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>5</v>
+      </c>
+      <c r="B393" t="s">
+        <v>223</v>
+      </c>
       <c r="E393" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="394" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>5</v>
+      </c>
+      <c r="B394" t="s">
+        <v>234</v>
+      </c>
       <c r="E394" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="395" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>5</v>
+      </c>
+      <c r="B395" t="s">
+        <v>253</v>
+      </c>
       <c r="E395" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>5</v>
+      </c>
+      <c r="B396" t="s">
+        <v>258</v>
+      </c>
       <c r="E396" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="397" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>5</v>
+      </c>
+      <c r="B397" t="s">
+        <v>259</v>
+      </c>
       <c r="E397" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="398" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>5</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="E398" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="399" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>5</v>
+      </c>
+      <c r="B399" t="s">
+        <v>448</v>
+      </c>
       <c r="E399" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>5</v>
+      </c>
+      <c r="B400" t="s">
+        <v>359</v>
+      </c>
       <c r="E400" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="401" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>5</v>
+      </c>
+      <c r="B401" t="s">
+        <v>449</v>
+      </c>
       <c r="E401" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>5</v>
+      </c>
+      <c r="B402" t="s">
+        <v>54</v>
+      </c>
       <c r="E402" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="403" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>5</v>
+      </c>
+      <c r="B403" t="s">
+        <v>450</v>
+      </c>
       <c r="E403" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="404" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>5</v>
+      </c>
+      <c r="B404" t="s">
+        <v>56</v>
+      </c>
       <c r="E404" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="405" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>5</v>
+      </c>
+      <c r="B405" t="s">
+        <v>451</v>
+      </c>
       <c r="E405" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>5</v>
+      </c>
+      <c r="B406" t="s">
+        <v>452</v>
+      </c>
       <c r="E406" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="407" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>5</v>
+      </c>
+      <c r="B407" t="s">
+        <v>222</v>
+      </c>
       <c r="E407" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B408" t="s">
+        <v>453</v>
+      </c>
       <c r="E408" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="409" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>5</v>
+      </c>
+      <c r="B409" t="s">
+        <v>454</v>
+      </c>
       <c r="E409" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="410" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>5</v>
+      </c>
+      <c r="B410" t="s">
+        <v>455</v>
+      </c>
       <c r="E410" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="411" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>5</v>
+      </c>
+      <c r="B411" t="s">
+        <v>272</v>
+      </c>
       <c r="E411" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>5</v>
+      </c>
+      <c r="B412" t="s">
+        <v>456</v>
+      </c>
       <c r="E412" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="413" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>5</v>
+      </c>
+      <c r="B413" t="s">
+        <v>457</v>
+      </c>
       <c r="E413" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="414" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>5</v>
+      </c>
+      <c r="B414" t="s">
+        <v>4</v>
+      </c>
       <c r="E414" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="415" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>5</v>
+      </c>
+      <c r="B415" t="s">
+        <v>458</v>
+      </c>
       <c r="E415" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="416" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>5</v>
+      </c>
+      <c r="B416" t="s">
+        <v>459</v>
+      </c>
       <c r="E416" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>5</v>
+      </c>
+      <c r="B417" t="s">
+        <v>8</v>
+      </c>
       <c r="E417" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>5</v>
+      </c>
+      <c r="B418" t="s">
+        <v>460</v>
+      </c>
       <c r="E418" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>5</v>
+      </c>
+      <c r="B419" t="s">
+        <v>461</v>
+      </c>
       <c r="E419" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>5</v>
+      </c>
+      <c r="B420" t="s">
+        <v>462</v>
+      </c>
       <c r="E420" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>5</v>
+      </c>
+      <c r="B421" t="s">
+        <v>463</v>
+      </c>
       <c r="E421" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>358</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
       <c r="E422" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>359</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
       <c r="E423" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>74</v>
+      </c>
+      <c r="B424" t="s">
+        <v>73</v>
+      </c>
       <c r="E424" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>74</v>
+      </c>
+      <c r="B425" t="s">
+        <v>75</v>
+      </c>
       <c r="E425" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>360</v>
+      </c>
+      <c r="B426" t="s">
+        <v>74</v>
+      </c>
       <c r="E426" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>361</v>
+      </c>
+      <c r="B427" t="s">
+        <v>362</v>
+      </c>
       <c r="E427" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>362</v>
+      </c>
+      <c r="B428" t="s">
+        <v>362</v>
+      </c>
       <c r="E428" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>244</v>
+      </c>
+      <c r="B429" t="s">
+        <v>244</v>
+      </c>
       <c r="E429" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>363</v>
+      </c>
+      <c r="B430" t="s">
+        <v>364</v>
+      </c>
       <c r="E430" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>280</v>
+      </c>
+      <c r="B431" t="s">
+        <v>117</v>
+      </c>
       <c r="E431" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>365</v>
+      </c>
+      <c r="B432" t="s">
+        <v>7</v>
+      </c>
       <c r="E432" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>366</v>
+      </c>
+      <c r="B433" t="s">
+        <v>7</v>
+      </c>
       <c r="E433" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>367</v>
+      </c>
+      <c r="B434" t="s">
+        <v>5</v>
+      </c>
       <c r="E434" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>368</v>
+      </c>
+      <c r="B435" t="s">
+        <v>21</v>
+      </c>
       <c r="E435" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="436" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>254</v>
+      </c>
+      <c r="B436" t="s">
+        <v>17</v>
+      </c>
       <c r="E436" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="437" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>369</v>
+      </c>
+      <c r="B437" t="s">
+        <v>370</v>
+      </c>
       <c r="E437" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>82</v>
+      </c>
+      <c r="B438" t="s">
+        <v>81</v>
+      </c>
       <c r="E438" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="439" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>82</v>
+      </c>
+      <c r="B439" t="s">
+        <v>260</v>
+      </c>
       <c r="E439" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>82</v>
+      </c>
+      <c r="B440" t="s">
+        <v>82</v>
+      </c>
       <c r="E440" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="441" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>261</v>
+      </c>
+      <c r="B441" t="s">
+        <v>261</v>
+      </c>
       <c r="E441" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>292</v>
+      </c>
+      <c r="B442" t="s">
+        <v>194</v>
+      </c>
       <c r="E442" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="443" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>292</v>
+      </c>
+      <c r="B443" t="s">
+        <v>212</v>
+      </c>
       <c r="E443" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="444" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>281</v>
+      </c>
+      <c r="B444" t="s">
+        <v>118</v>
+      </c>
       <c r="E444" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="445" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>7</v>
+      </c>
+      <c r="B445" t="s">
+        <v>87</v>
+      </c>
       <c r="E445" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="446" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>7</v>
+      </c>
+      <c r="B446" t="s">
+        <v>372</v>
+      </c>
       <c r="E446" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="447" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>7</v>
+      </c>
+      <c r="B447" t="s">
+        <v>99</v>
+      </c>
       <c r="E447" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="448" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>7</v>
+      </c>
+      <c r="B448" t="s">
+        <v>478</v>
+      </c>
       <c r="E448" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>7</v>
+      </c>
+      <c r="B449" t="s">
+        <v>107</v>
+      </c>
       <c r="E449" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>7</v>
+      </c>
+      <c r="B450" t="s">
+        <v>311</v>
+      </c>
       <c r="E450" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="451" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>7</v>
+      </c>
+      <c r="B451" t="s">
+        <v>480</v>
+      </c>
       <c r="E451" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>7</v>
+      </c>
+      <c r="B452" t="s">
+        <v>481</v>
+      </c>
       <c r="E452" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="453" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>7</v>
+      </c>
+      <c r="B453" t="s">
+        <v>482</v>
+      </c>
       <c r="E453" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>7</v>
+      </c>
+      <c r="B454" t="s">
+        <v>483</v>
+      </c>
       <c r="E454" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="455" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>7</v>
+      </c>
+      <c r="B455" t="s">
+        <v>38</v>
+      </c>
       <c r="E455" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>7</v>
+      </c>
+      <c r="B456" t="s">
+        <v>152</v>
+      </c>
       <c r="E456" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="457" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>7</v>
+      </c>
+      <c r="B457" t="s">
+        <v>484</v>
+      </c>
       <c r="E457" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="458" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>7</v>
+      </c>
+      <c r="B458" t="s">
+        <v>335</v>
+      </c>
       <c r="E458" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="459" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>7</v>
+      </c>
+      <c r="B459" t="s">
+        <v>485</v>
+      </c>
       <c r="E459" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="460" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>7</v>
+      </c>
+      <c r="B460" t="s">
+        <v>486</v>
+      </c>
       <c r="E460" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="461" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>7</v>
+      </c>
+      <c r="B461" t="s">
+        <v>487</v>
+      </c>
       <c r="E461" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="462" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>7</v>
+      </c>
+      <c r="B462" t="s">
+        <v>488</v>
+      </c>
       <c r="E462" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="463" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>7</v>
+      </c>
+      <c r="B463" t="s">
+        <v>489</v>
+      </c>
       <c r="E463" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="464" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>7</v>
+      </c>
+      <c r="B464" t="s">
+        <v>490</v>
+      </c>
       <c r="E464" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="465" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>7</v>
+      </c>
+      <c r="B465" t="s">
+        <v>491</v>
+      </c>
       <c r="E465" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>7</v>
+      </c>
+      <c r="B466" t="s">
+        <v>492</v>
+      </c>
       <c r="E466" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="467" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>7</v>
+      </c>
+      <c r="B467" t="s">
+        <v>493</v>
+      </c>
       <c r="E467" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>7</v>
+      </c>
+      <c r="B468" t="s">
+        <v>236</v>
+      </c>
       <c r="E468" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="469" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>7</v>
+      </c>
+      <c r="B469" t="s">
+        <v>494</v>
+      </c>
       <c r="E469" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="470" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>7</v>
+      </c>
+      <c r="B470" t="s">
+        <v>495</v>
+      </c>
       <c r="E470" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="471" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>7</v>
+      </c>
+      <c r="B471" t="s">
+        <v>496</v>
+      </c>
       <c r="E471" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="472" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>7</v>
+      </c>
+      <c r="B472" t="s">
+        <v>497</v>
+      </c>
       <c r="E472" s="3" t="s">
         <v>92</v>
       </c>
     </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>7</v>
+      </c>
+      <c r="B473" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>74</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>74</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>74</v>
+      </c>
+      <c r="B476" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>74</v>
+      </c>
+      <c r="B477" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>501</v>
+      </c>
+      <c r="B478" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>502</v>
+      </c>
+      <c r="B479" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>503</v>
+      </c>
+      <c r="B480" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>507</v>
+      </c>
+      <c r="B481" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>509</v>
+      </c>
+      <c r="B482" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>511</v>
+      </c>
+      <c r="B483" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B392" xr:uid="{9C46D89F-F5AB-4742-AA83-7B34B403792F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B392">
-      <sortCondition ref="A1:A392"/>
+  <autoFilter ref="A1:B477" xr:uid="{9C46D89F-F5AB-4742-AA83-7B34B403792F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A283:B357">
+      <sortCondition ref="B1:B449"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
